--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Col2a1</t>
+  </si>
+  <si>
+    <t>Ddr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col2a1</t>
-  </si>
-  <si>
-    <t>Ddr1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01944166666666667</v>
+        <v>0.2021233333333333</v>
       </c>
       <c r="H2">
-        <v>0.058325</v>
+        <v>0.60637</v>
       </c>
       <c r="I2">
-        <v>0.085855768197522</v>
+        <v>0.9764223557676824</v>
       </c>
       <c r="J2">
-        <v>0.085855768197522</v>
+        <v>0.9764223557676823</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N2">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O2">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P2">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q2">
-        <v>0.004109378602777778</v>
+        <v>0.07401412856999999</v>
       </c>
       <c r="R2">
-        <v>0.036984407425</v>
+        <v>0.6661271571299999</v>
       </c>
       <c r="S2">
-        <v>0.003259065217321387</v>
+        <v>0.06247510382579365</v>
       </c>
       <c r="T2">
-        <v>0.003259065217321387</v>
+        <v>0.06247510382579365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01944166666666667</v>
+        <v>0.2021233333333333</v>
       </c>
       <c r="H3">
-        <v>0.058325</v>
+        <v>0.60637</v>
       </c>
       <c r="I3">
-        <v>0.085855768197522</v>
+        <v>0.9764223557676824</v>
       </c>
       <c r="J3">
-        <v>0.085855768197522</v>
+        <v>0.9764223557676823</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P3">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q3">
-        <v>0.03090261341388889</v>
+        <v>0.3212759142011111</v>
       </c>
       <c r="R3">
-        <v>0.278123520725</v>
+        <v>2.89148322781</v>
       </c>
       <c r="S3">
-        <v>0.02450823889369944</v>
+        <v>0.2711880350987046</v>
       </c>
       <c r="T3">
-        <v>0.02450823889369944</v>
+        <v>0.2711880350987045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01944166666666667</v>
+        <v>0.2021233333333333</v>
       </c>
       <c r="H4">
-        <v>0.058325</v>
+        <v>0.60637</v>
       </c>
       <c r="I4">
-        <v>0.085855768197522</v>
+        <v>0.9764223557676824</v>
       </c>
       <c r="J4">
-        <v>0.085855768197522</v>
+        <v>0.9764223557676823</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q4">
-        <v>0.07324415912777778</v>
+        <v>0.7614755382822221</v>
       </c>
       <c r="R4">
-        <v>0.65919743215</v>
+        <v>6.853279844539999</v>
       </c>
       <c r="S4">
-        <v>0.05808846408650117</v>
+        <v>0.6427592168431843</v>
       </c>
       <c r="T4">
-        <v>0.05808846408650117</v>
+        <v>0.6427592168431842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2021233333333333</v>
+        <v>0.004880666666666667</v>
       </c>
       <c r="H5">
-        <v>0.60637</v>
+        <v>0.014642</v>
       </c>
       <c r="I5">
-        <v>0.8925908643280139</v>
+        <v>0.02357764423231757</v>
       </c>
       <c r="J5">
-        <v>0.8925908643280139</v>
+        <v>0.02357764423231757</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N5">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O5">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P5">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q5">
-        <v>0.04272274159222222</v>
+        <v>0.001787217162</v>
       </c>
       <c r="R5">
-        <v>0.38450467433</v>
+        <v>0.016084954458</v>
       </c>
       <c r="S5">
-        <v>0.03388254394902991</v>
+        <v>0.001508584643398042</v>
       </c>
       <c r="T5">
-        <v>0.0338825439490299</v>
+        <v>0.001508584643398042</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2021233333333333</v>
+        <v>0.004880666666666667</v>
       </c>
       <c r="H6">
-        <v>0.60637</v>
+        <v>0.014642</v>
       </c>
       <c r="I6">
-        <v>0.8925908643280139</v>
+        <v>0.02357764423231757</v>
       </c>
       <c r="J6">
-        <v>0.8925908643280139</v>
+        <v>0.02357764423231757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P6">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q6">
-        <v>0.3212759142011111</v>
+        <v>0.007757840816222223</v>
       </c>
       <c r="R6">
-        <v>2.89148322781</v>
+        <v>0.06982056734600001</v>
       </c>
       <c r="S6">
-        <v>0.2547974422284189</v>
+        <v>0.006548370153396825</v>
       </c>
       <c r="T6">
-        <v>0.2547974422284188</v>
+        <v>0.006548370153396825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2021233333333333</v>
+        <v>0.004880666666666667</v>
       </c>
       <c r="H7">
-        <v>0.60637</v>
+        <v>0.014642</v>
       </c>
       <c r="I7">
-        <v>0.8925908643280139</v>
+        <v>0.02357764423231757</v>
       </c>
       <c r="J7">
-        <v>0.8925908643280139</v>
+        <v>0.02357764423231757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q7">
-        <v>0.7614755382822221</v>
+        <v>0.01838732924044444</v>
       </c>
       <c r="R7">
-        <v>6.853279844539999</v>
+        <v>0.165485963164</v>
       </c>
       <c r="S7">
-        <v>0.6039108781505652</v>
+        <v>0.01552068943552271</v>
       </c>
       <c r="T7">
-        <v>0.6039108781505652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.004880666666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.014642</v>
-      </c>
-      <c r="I8">
-        <v>0.02155336747446408</v>
-      </c>
-      <c r="J8">
-        <v>0.02155336747446408</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.2113696666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.634109</v>
-      </c>
-      <c r="O8">
-        <v>0.03795977003925348</v>
-      </c>
-      <c r="P8">
-        <v>0.03795977003925347</v>
-      </c>
-      <c r="Q8">
-        <v>0.001031624886444445</v>
-      </c>
-      <c r="R8">
-        <v>0.009284623978000001</v>
-      </c>
-      <c r="S8">
-        <v>0.0008181608729021818</v>
-      </c>
-      <c r="T8">
-        <v>0.0008181608729021817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.004880666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.014642</v>
-      </c>
-      <c r="I9">
-        <v>0.02155336747446408</v>
-      </c>
-      <c r="J9">
-        <v>0.02155336747446408</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.589504333333333</v>
-      </c>
-      <c r="N9">
-        <v>4.768513</v>
-      </c>
-      <c r="O9">
-        <v>0.2854582680725092</v>
-      </c>
-      <c r="P9">
-        <v>0.2854582680725091</v>
-      </c>
-      <c r="Q9">
-        <v>0.007757840816222223</v>
-      </c>
-      <c r="R9">
-        <v>0.06982056734600001</v>
-      </c>
-      <c r="S9">
-        <v>0.006152586950390867</v>
-      </c>
-      <c r="T9">
-        <v>0.006152586950390865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.004880666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.014642</v>
-      </c>
-      <c r="I10">
-        <v>0.02155336747446408</v>
-      </c>
-      <c r="J10">
-        <v>0.02155336747446408</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.767380666666666</v>
-      </c>
-      <c r="N10">
-        <v>11.302142</v>
-      </c>
-      <c r="O10">
-        <v>0.6765819618882374</v>
-      </c>
-      <c r="P10">
-        <v>0.6765819618882374</v>
-      </c>
-      <c r="Q10">
-        <v>0.01838732924044444</v>
-      </c>
-      <c r="R10">
-        <v>0.165485963164</v>
-      </c>
-      <c r="S10">
-        <v>0.01458261965117103</v>
-      </c>
-      <c r="T10">
-        <v>0.01458261965117103</v>
+        <v>0.01552068943552271</v>
       </c>
     </row>
   </sheetData>
